--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/fiama.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/fiama.xlsx
@@ -708,8 +708,7 @@
   </si>
   <si>
     <t xml:space="preserve">하지만 며칠이 지나고, 그녀는 남자의 상냥함을 깨달았어. 그의 성실한 면모와 그가 끌어안고 있는 괴로움에 마음이 움직인 거야. 상처가 다 나은 여자는, 남자의 곁에서 함께 살아가기로 결심했어.
-두 사람은 여러 가지 고난을 힘을 합쳐 극복했어. 그리고 마지막에는 왕자에게 걸렸던 저주가 풀리고, 두 사람은 결혼해서 오래오래 행복하게 살았답니다.
-</t>
+두 사람은 여러 가지 고난을 힘을 합쳐 극복했어. 그리고 마지막에는 왕자에게 걸렸던 저주가 풀리고, 두 사람은 결혼해서 오래오래 행복하게 살았답니다.</t>
   </si>
   <si>
     <t xml:space="preserve">흔해빠진 이야기지.
@@ -744,7 +743,7 @@
   </si>
   <si>
     <t xml:space="preserve">…꿈꾸는 아이는, 어른이 될 수 없는 엘레아의 슬픈 아이들을 말해.
-꿈꾸는 병에 걸린 엘레아의 아이들은 꿈과 현실을 구분할 수 없게 되고, 결국에는 절대로 깨지 않는 잠에 빠지게 돼. 그 아이들의 표정은 항상 공허하고, 마음은 바깥 세상과 단절된 것처럼 종잡을 수가 없지.
+꿈꾸는 병에 걸린 엘레아 아이들은 꿈과 현실을 구분할 수 없게 되고, 결국에는 절대로 깨지 않는 잠에 빠지게 돼. 그 아이들의 표정은 항상 공허하고, 마음은 바깥 세상과 단절된 것처럼 종잡을 수가 없지.
 꿈꾸는 아이는 꿈 속에서 에테르를 잣고, 그건 현실 세계에서 폭력적인 힘이나 예측할 수 없는 재앙으로 발현돼. 반쯤 장난으로 꿈꾸는 아이를 놀래킨 어떤 멍청이 때문에, 마을 하나가 흔적도 없이 사라진 적도 있어.</t>
   </si>
   <si>
@@ -778,7 +777,7 @@
   </si>
   <si>
     <t xml:space="preserve">그 때 우리가 쉬고 있었던 장소 근처에 동굴이 있었어. 혹시 그 아이가 동굴 안쪽으로 깊이 들어가서, 길을 잃고 헤매고 있을 지도 모르겠네.
-그렇게 위험한 곳은 아니니까, 잠시 그 아이를 찾으러 다녀와 주지 않을래? 동굴은 여기서 북쪽으로 쭉 가면 있어.</t>
+그렇게 위험한 곳은 아니니까, 잠시 그 아이를 찾으러 다녀와 주지 않을래? 동굴은 여기서 북서쪽으로 쭉 가면 있어.</t>
   </si>
   <si>
     <t xml:space="preserve">아, 역시 동굴에서 헤매고 있었구나. 무사해서 다행이야.
